--- a/biology/Microbiologie/Pseudodendromonadaceae/Pseudodendromonadaceae.xlsx
+++ b/biology/Microbiologie/Pseudodendromonadaceae/Pseudodendromonadaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Pseudodendromonadaceae sont une famille de chromistes de l'embranchement des Bigyra, de la classe des Bikosea et de l’ordre des Bicoecida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Pseudodendromonas, composé de pseudo‑, faux, et ‑dendromonas par allusion au genre Dendromonas (algue Ochrophyte de la famille des Chromulinaceae), en raison de la ressemblance du premier organisme avec le second.
 Par ailleurs Dendromonas est dérivé du grec δένδρων / dendron, arbre, et μονασ / monas, « seul, solitaire, isolé », littéralement « monade arborescente », en référence aux ramifications en forme d'arbre de cette monade.
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,6 +586,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -595,9 +613,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (10 septembre 2022)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (10 septembre 2022) :
 Cyathobodo J.B.Petersen &amp; J.B.Hansen, 1961
 Pseudodendromonas Bourrelly, 1953
 Espèce holotype : Pseudodendromonas vlkii Bourrelly</t>
@@ -628,9 +648,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Pseudodendromonadaceae Hibberd, 1985[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Pseudodendromonadaceae Hibberd, 1985.
 </t>
         </is>
       </c>
